--- a/data/trans_dic/P1416-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1416-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.06022740330980809</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.09377628296884737</v>
+        <v>0.09377628296884739</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1021360979370201</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05237085300561703</v>
+        <v>0.05214313077183656</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03797259766215964</v>
+        <v>0.03555130306919831</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04021368608882056</v>
+        <v>0.0389184045380745</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06962220844115607</v>
+        <v>0.06943230263089115</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07406420040015879</v>
+        <v>0.06911040758687055</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06724443046356464</v>
+        <v>0.06923115598825967</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07147053260934295</v>
+        <v>0.07062889401821336</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1309198779047168</v>
+        <v>0.128731641997466</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06731122485935884</v>
+        <v>0.06598503099050319</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.05680665646851672</v>
+        <v>0.05713071308256618</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05899345834861575</v>
+        <v>0.05984107338287863</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1065586398684555</v>
+        <v>0.1060007636082738</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.10337566620105</v>
+        <v>0.1035682757185518</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07875244839200522</v>
+        <v>0.07793493116478048</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08722035002042489</v>
+        <v>0.09152771574766019</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1251341893056336</v>
+        <v>0.1254806846296411</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1474546690518794</v>
+        <v>0.1370988762829183</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1337162091166027</v>
+        <v>0.1410095035256582</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1355898982223372</v>
+        <v>0.1360401468102689</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1878308014314996</v>
+        <v>0.1862681969398505</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1084607630469085</v>
+        <v>0.1073541783242152</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.09713956718371997</v>
+        <v>0.0958980652596598</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.09842251175750975</v>
+        <v>0.09924457841714311</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1463819309678666</v>
+        <v>0.1464179932054738</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05103666332077224</v>
+        <v>0.05159735465633281</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03394270323302475</v>
+        <v>0.03298203074061164</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03518386398430146</v>
+        <v>0.03537939702385828</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07276039519692272</v>
+        <v>0.07231953275212821</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1068357032933275</v>
+        <v>0.106612267236652</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08006308006284188</v>
+        <v>0.07956386949788113</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07209817943616305</v>
+        <v>0.0695287484175133</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1074869825480365</v>
+        <v>0.1068496500088962</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.08787797090391215</v>
+        <v>0.08803394810407682</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06217719531037851</v>
+        <v>0.06040999887612383</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06102219940115587</v>
+        <v>0.0597845558298231</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.09415641583200274</v>
+        <v>0.09587871356175888</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1068618091973546</v>
+        <v>0.1085166096111883</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08017362156367262</v>
+        <v>0.0826787189636471</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08324308406468668</v>
+        <v>0.08295274841208887</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1325817879300651</v>
+        <v>0.1273629711498686</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1794304904130661</v>
+        <v>0.1796145461407558</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1514871160770689</v>
+        <v>0.1559742601281735</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1368376819213486</v>
+        <v>0.1353912270813007</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1638273681425884</v>
+        <v>0.1618189024812104</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1329633613160955</v>
+        <v>0.1325746620904147</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1052108341749546</v>
+        <v>0.1035072090601278</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1014360429319002</v>
+        <v>0.1003166511834238</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1341934515715342</v>
+        <v>0.1353218155046038</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05508661205763841</v>
+        <v>0.05358251762976268</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0401567413364534</v>
+        <v>0.04023211835000046</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02871763238848347</v>
+        <v>0.02889908460069942</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09069905703378989</v>
+        <v>0.09393888193205951</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02972849324338986</v>
+        <v>0.03282587268225657</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0454071267081313</v>
+        <v>0.04334773897032715</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06738689687751381</v>
+        <v>0.066620494335664</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1016030985311382</v>
+        <v>0.1022895741107142</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05348068121600273</v>
+        <v>0.05481922339169559</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04751287090083012</v>
+        <v>0.04761329372044099</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04616669361933434</v>
+        <v>0.04448917430805428</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1036706513524382</v>
+        <v>0.1029229081762383</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1013141293944486</v>
+        <v>0.1004899172822936</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07972715900238998</v>
+        <v>0.08148401310060555</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06525450027764068</v>
+        <v>0.06691661724154879</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1548095991902831</v>
+        <v>0.1566241621809449</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1043307544142289</v>
+        <v>0.1075308422036304</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1100306856967905</v>
+        <v>0.1070513607869507</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1700376553630195</v>
+        <v>0.1679499901006284</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1880167118552002</v>
+        <v>0.1872820830231302</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0926787510857361</v>
+        <v>0.09285733563346436</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.08232038646944226</v>
+        <v>0.0817825920136095</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0832927027713761</v>
+        <v>0.07970117779975244</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1528503080655869</v>
+        <v>0.1514745068034771</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.03539467060019666</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.07974396097649074</v>
+        <v>0.07974396097649072</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1005287753527808</v>
@@ -1105,7 +1105,7 @@
         <v>0.0535269092163505</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.09753882803471139</v>
+        <v>0.09753882803471138</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04719996180449391</v>
+        <v>0.04628640633785481</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0351756524669623</v>
+        <v>0.03377729913313767</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02608968087792144</v>
+        <v>0.0259850533866227</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0626773812545314</v>
+        <v>0.06409693616623933</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0771123413062612</v>
+        <v>0.07885638936675687</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06602294345345869</v>
+        <v>0.066209031986998</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06136145620542878</v>
+        <v>0.06143022182631642</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1024007129523043</v>
+        <v>0.1022154188912491</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06351893689452313</v>
+        <v>0.06346904868333507</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.05018946753471688</v>
+        <v>0.05049375482937802</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04403108679658908</v>
+        <v>0.04352226411337033</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.08500702550148298</v>
+        <v>0.08507876881126972</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07419132401977233</v>
+        <v>0.07411689928095559</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06038912905858317</v>
+        <v>0.0613521855678285</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04687131556634715</v>
+        <v>0.04852647885708854</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09844112966773168</v>
+        <v>0.1006050886218123</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1241610548459968</v>
+        <v>0.1250787967372123</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1095921923712845</v>
+        <v>0.1069110336365057</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09930018505243009</v>
+        <v>0.09946804147207691</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1438479610722502</v>
+        <v>0.1428617358657673</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08871113696326852</v>
+        <v>0.08683456175147834</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.07396659247933016</v>
+        <v>0.07413693006487621</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06445919903111832</v>
+        <v>0.06445285977217267</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1112077238486241</v>
+        <v>0.1125836927506659</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.04481556992369545</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.099774951229099</v>
+        <v>0.09977495122909899</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1055485992834228</v>
@@ -1229,7 +1229,7 @@
         <v>0.071028728113072</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.1150380389015754</v>
+        <v>0.1150380389015755</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.08612479464911151</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0355288886012519</v>
+        <v>0.03597367985389819</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0262111828819286</v>
+        <v>0.02505486028063735</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03030413693960927</v>
+        <v>0.02941064569763632</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07407988380040927</v>
+        <v>0.07373561456023421</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.08054786757405455</v>
+        <v>0.07950629044452957</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03177651920069591</v>
+        <v>0.03064444027926601</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05311644101145691</v>
+        <v>0.05400946663737972</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.09554372857205136</v>
+        <v>0.09797084063189242</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06780647286360954</v>
+        <v>0.0683734712657651</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03226779665873985</v>
+        <v>0.03265803350338423</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.04709066136636415</v>
+        <v>0.04764058857970218</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.09263975678920716</v>
+        <v>0.09437241240896198</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08563668849809836</v>
+        <v>0.08343317409154707</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06312829222164044</v>
+        <v>0.05956442197871764</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06884040503202614</v>
+        <v>0.06525852051749054</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1333019914914172</v>
+        <v>0.1357194295995885</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.135685740699932</v>
+        <v>0.1325415718334742</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06277030704604215</v>
+        <v>0.06176007000943537</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09473880110559559</v>
+        <v>0.09167349963834066</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1346562547349628</v>
+        <v>0.1340022737515892</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1059053783510309</v>
+        <v>0.1065374545384039</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.05636840202300753</v>
+        <v>0.05441268019961579</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.07291846324737435</v>
+        <v>0.07449774679215861</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1251451792353183</v>
+        <v>0.1268815084581468</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.06697083668972065</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.07937564982328486</v>
+        <v>0.07937564982328485</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.07830015411668459</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.05105584874927899</v>
+        <v>0.05044531336728668</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04409360973345978</v>
+        <v>0.04260724129590347</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.07059207540128878</v>
+        <v>0.06836040090574641</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.08029477665294686</v>
+        <v>0.08075275741173858</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.06529298425412867</v>
+        <v>0.06416446505233341</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.05219367848474037</v>
+        <v>0.04924648878210187</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.05286909647082124</v>
+        <v>0.05329365336135763</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.06246814449021201</v>
+        <v>0.06296133334657927</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.0649694007424557</v>
+        <v>0.06576329123501888</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.05291317674369313</v>
+        <v>0.05278995889744544</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.06125285562707788</v>
+        <v>0.06157414279871694</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.07491063593550913</v>
+        <v>0.07355693192736029</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1119995012876577</v>
+        <v>0.111843417143424</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1142416362809325</v>
+        <v>0.107818223667515</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1393040864258994</v>
+        <v>0.1429218509874989</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2393070906177873</v>
+        <v>0.2308491046366548</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.09461715850422223</v>
+        <v>0.0941635064722483</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.08175884579453127</v>
+        <v>0.07933428198129705</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.08361618866746826</v>
+        <v>0.08476099760582484</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.09827343566456542</v>
+        <v>0.09921879546648434</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.09421980406354459</v>
+        <v>0.09357466918539632</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.08007366010608052</v>
+        <v>0.07970592504978305</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.08967941472303675</v>
+        <v>0.08855257070426922</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1189321279920037</v>
+        <v>0.1182121446340021</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05694483848211606</v>
+        <v>0.05901059650984843</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04395987218149616</v>
+        <v>0.04339610384977195</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.04295392096851707</v>
+        <v>0.04296460801273935</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08611415824539473</v>
+        <v>0.0872469038554651</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.08649661333402134</v>
+        <v>0.08617018443894835</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.06413420183935066</v>
+        <v>0.06467866334174122</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.07052046321241077</v>
+        <v>0.07054513460954809</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1080638614601047</v>
+        <v>0.1083234772922803</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0751121784626089</v>
+        <v>0.0759403014160635</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.05688959705808123</v>
+        <v>0.05645477702303252</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.05949385540950261</v>
+        <v>0.05932723281827371</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1000261818123696</v>
+        <v>0.100131438728302</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0760686321929762</v>
+        <v>0.07514542110492767</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0600383485965906</v>
+        <v>0.05895068366042179</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05808537761915682</v>
+        <v>0.05831380260086038</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1095127993026053</v>
+        <v>0.1094986335819971</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1060708154410811</v>
+        <v>0.1070049586493937</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.08376384395134491</v>
+        <v>0.08264442663210565</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.08983964430208341</v>
+        <v>0.08863452737154714</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1262228106284784</v>
+        <v>0.1273307675430058</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.08910447043338954</v>
+        <v>0.0889632743825236</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.06837392969196023</v>
+        <v>0.06863927143352629</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.07123908883611005</v>
+        <v>0.07076303262384576</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1145613753366685</v>
+        <v>0.1153691692658447</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>24812</v>
+        <v>24704</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>16602</v>
+        <v>15543</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>17255</v>
+        <v>16700</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>38257</v>
+        <v>38152</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>22714</v>
+        <v>21195</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>21145</v>
+        <v>21770</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>24804</v>
+        <v>24512</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>63695</v>
+        <v>62630</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>52534</v>
+        <v>51498</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>42700</v>
+        <v>42943</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>45788</v>
+        <v>46445</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>110395</v>
+        <v>109818</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>48977</v>
+        <v>49068</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>34431</v>
+        <v>34074</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>37426</v>
+        <v>39274</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>68760</v>
+        <v>68951</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>45221</v>
+        <v>42045</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>42048</v>
+        <v>44341</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>47057</v>
+        <v>47213</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>91383</v>
+        <v>90622</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>84649</v>
+        <v>83785</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>73016</v>
+        <v>72083</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>76390</v>
+        <v>77028</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>151653</v>
+        <v>151690</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>18727</v>
+        <v>18933</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>14215</v>
+        <v>13813</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13272</v>
+        <v>13346</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>35091</v>
+        <v>34878</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>39728</v>
+        <v>39645</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>27062</v>
+        <v>26893</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>26840</v>
+        <v>25884</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>45325</v>
+        <v>45056</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>64924</v>
+        <v>65039</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>47056</v>
+        <v>45719</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>45736</v>
+        <v>44809</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>85113</v>
+        <v>86670</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>39211</v>
+        <v>39818</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>33576</v>
+        <v>34626</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>31402</v>
+        <v>31292</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>63941</v>
+        <v>61424</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>66724</v>
+        <v>66792</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>51204</v>
+        <v>52721</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>50941</v>
+        <v>50402</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>69083</v>
+        <v>68236</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>98233</v>
+        <v>97946</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>79624</v>
+        <v>78335</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>76026</v>
+        <v>75187</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>121305</v>
+        <v>122325</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>29878</v>
+        <v>29063</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>25234</v>
+        <v>25282</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>14988</v>
+        <v>15083</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>42596</v>
+        <v>44118</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>4988</v>
+        <v>5508</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>11812</v>
+        <v>11276</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>11195</v>
+        <v>11067</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>19022</v>
+        <v>19150</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>37980</v>
+        <v>38931</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>42216</v>
+        <v>42305</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>31764</v>
+        <v>30610</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>68097</v>
+        <v>67606</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>54952</v>
+        <v>54505</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>50100</v>
+        <v>51204</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>34057</v>
+        <v>34925</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>72706</v>
+        <v>73558</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>17505</v>
+        <v>18042</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>28622</v>
+        <v>27847</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>28247</v>
+        <v>27900</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>35200</v>
+        <v>35062</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>65818</v>
+        <v>65945</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>73143</v>
+        <v>72666</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>57308</v>
+        <v>54837</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>100401</v>
+        <v>99498</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>58449</v>
+        <v>57318</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>40769</v>
+        <v>39148</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>29994</v>
+        <v>29873</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>70941</v>
+        <v>72548</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>55080</v>
+        <v>56326</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>50617</v>
+        <v>50760</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>50677</v>
+        <v>50734</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>87624</v>
+        <v>87466</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>124028</v>
+        <v>123931</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>96648</v>
+        <v>97234</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>86984</v>
+        <v>85979</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>168955</v>
+        <v>169098</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>91874</v>
+        <v>91781</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>69992</v>
+        <v>71108</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>53885</v>
+        <v>55788</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>111420</v>
+        <v>113869</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>88686</v>
+        <v>89342</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>84020</v>
+        <v>81964</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>82010</v>
+        <v>82148</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>123091</v>
+        <v>122247</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>173219</v>
+        <v>169555</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>142435</v>
+        <v>142763</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>127340</v>
+        <v>127328</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>221030</v>
+        <v>223765</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>12455</v>
+        <v>12611</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>13383</v>
+        <v>12793</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>18810</v>
+        <v>18255</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>42002</v>
+        <v>41806</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>45812</v>
+        <v>45219</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>24158</v>
+        <v>23297</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>39213</v>
+        <v>39872</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>79025</v>
+        <v>81032</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>62335</v>
+        <v>62856</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>41007</v>
+        <v>41503</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>63994</v>
+        <v>64741</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>129148</v>
+        <v>131563</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>30020</v>
+        <v>29248</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>32233</v>
+        <v>30413</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>42730</v>
+        <v>40506</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>75579</v>
+        <v>76950</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>77172</v>
+        <v>75383</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>47721</v>
+        <v>46953</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>69940</v>
+        <v>67677</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>111375</v>
+        <v>110834</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>97360</v>
+        <v>97941</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>71635</v>
+        <v>69150</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>99093</v>
+        <v>101239</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>174463</v>
+        <v>176883</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>15225</v>
+        <v>15043</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>11768</v>
+        <v>11371</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>20270</v>
+        <v>19629</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>18983</v>
+        <v>19091</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>81535</v>
+        <v>80126</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>57901</v>
+        <v>54632</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>57206</v>
+        <v>57665</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>52463</v>
+        <v>52877</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>100505</v>
+        <v>101733</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>72821</v>
+        <v>72651</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>83866</v>
+        <v>84305</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>80623</v>
+        <v>79166</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>33398</v>
+        <v>33352</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>30489</v>
+        <v>28775</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>40000</v>
+        <v>41039</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>56576</v>
+        <v>54576</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>118154</v>
+        <v>117588</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>90699</v>
+        <v>88010</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>90475</v>
+        <v>91714</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>82534</v>
+        <v>83328</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>145754</v>
+        <v>144756</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>110200</v>
+        <v>109694</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>122786</v>
+        <v>121244</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>128001</v>
+        <v>127226</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>186220</v>
+        <v>192976</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>150382</v>
+        <v>148453</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>145430</v>
+        <v>145466</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>295944</v>
+        <v>299837</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>292196</v>
+        <v>291094</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>227603</v>
+        <v>229535</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>249050</v>
+        <v>249137</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>390981</v>
+        <v>391921</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>499369</v>
+        <v>504875</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>396506</v>
+        <v>393475</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>411538</v>
+        <v>410385</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>705655</v>
+        <v>706398</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>248759</v>
+        <v>245740</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>205384</v>
+        <v>201664</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>196661</v>
+        <v>197434</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>376357</v>
+        <v>376308</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>358320</v>
+        <v>361476</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>297265</v>
+        <v>293293</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>317277</v>
+        <v>313021</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>456681</v>
+        <v>460690</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>592394</v>
+        <v>591456</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>476548</v>
+        <v>478398</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>492783</v>
+        <v>489490</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>808197</v>
+        <v>813895</v>
       </c>
     </row>
     <row r="32">
